--- a/Medicine_Inventory_50_Rows.xlsx
+++ b/Medicine_Inventory_50_Rows.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6340"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -400,8 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +469,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +555,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,6 +590,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,14 +766,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,1042 +798,1042 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>7.86</v>
+      </c>
+      <c r="G2">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2">
-        <v>9.85</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3">
-        <v>2.73</v>
+        <v>1.29</v>
       </c>
       <c r="G3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4">
+        <v>4.25</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
         <v>123</v>
       </c>
-      <c r="F4">
-        <v>7.86</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
       <c r="F5">
-        <v>4.6</v>
+        <v>7.54</v>
       </c>
       <c r="G5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6">
+        <v>7.21</v>
+      </c>
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6">
-        <v>4.29</v>
-      </c>
-      <c r="G6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>123</v>
       </c>
       <c r="F7">
-        <v>9.58</v>
+        <v>5.47</v>
       </c>
       <c r="G7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8">
-        <v>9.949999999999999</v>
+        <v>7.19</v>
       </c>
       <c r="G8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9">
+        <v>2.21</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9">
-        <v>5.6</v>
-      </c>
-      <c r="G9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>125</v>
       </c>
       <c r="F10">
-        <v>7.21</v>
+        <v>7.5</v>
       </c>
       <c r="G10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>1.63</v>
+        <v>9.61</v>
       </c>
       <c r="G11">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12">
+        <v>5.28</v>
+      </c>
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12">
-        <v>3.04</v>
-      </c>
-      <c r="G12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F13">
-        <v>9.69</v>
+        <v>6.23</v>
       </c>
       <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F14">
-        <v>5.83</v>
+        <v>9.35</v>
       </c>
       <c r="G14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15">
+        <v>9.85</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G16">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15">
-        <v>5.47</v>
-      </c>
-      <c r="G15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16">
-        <v>7.5</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
         <v>125</v>
       </c>
       <c r="F17">
-        <v>0.67</v>
+        <v>2.12</v>
       </c>
       <c r="G17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>125</v>
       </c>
       <c r="F18">
-        <v>5.88</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19">
-        <v>5.08</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="G19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>126</v>
       </c>
       <c r="F20">
-        <v>8.539999999999999</v>
+        <v>3.04</v>
       </c>
       <c r="G20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="G21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22">
+        <v>5.99</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23">
+        <v>5.08</v>
+      </c>
+      <c r="G23">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>93</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="G22">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23">
-        <v>0.89</v>
-      </c>
-      <c r="G23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
       <c r="B24">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24">
-        <v>1.94</v>
+        <v>3.23</v>
       </c>
       <c r="G24">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25">
-        <v>5.99</v>
+        <v>6.78</v>
       </c>
       <c r="G25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
         <v>123</v>
       </c>
-      <c r="F26">
-        <v>6.78</v>
-      </c>
-      <c r="G26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>171</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" t="s">
-        <v>124</v>
-      </c>
       <c r="F27">
-        <v>2.43</v>
+        <v>9.69</v>
       </c>
       <c r="G27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
         <v>123</v>
       </c>
       <c r="F28">
-        <v>1.29</v>
+        <v>0.82</v>
       </c>
       <c r="G28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
       <c r="B29">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29">
+        <v>2.46</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>196</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
         <v>124</v>
       </c>
-      <c r="F29">
-        <v>8.91</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>174</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>126</v>
-      </c>
       <c r="F30">
-        <v>2.54</v>
+        <v>0.83</v>
       </c>
       <c r="G30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
         <v>123</v>
       </c>
-      <c r="F31">
-        <v>5.99</v>
-      </c>
-      <c r="G31">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
-      </c>
       <c r="F32">
-        <v>6.23</v>
+        <v>4.29</v>
       </c>
       <c r="G32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
         <v>125</v>
       </c>
       <c r="F33">
-        <v>4.25</v>
+        <v>0.67</v>
       </c>
       <c r="G33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34">
+        <v>5.99</v>
+      </c>
+      <c r="G34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35">
+        <v>9.58</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36">
+        <v>5.88</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37">
+        <v>2.54</v>
+      </c>
+      <c r="G37">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34">
-        <v>5.88</v>
-      </c>
-      <c r="G34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35">
-        <v>5.28</v>
-      </c>
-      <c r="G35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>136</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36">
-        <v>9.35</v>
-      </c>
-      <c r="G36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>186</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37">
-        <v>2.12</v>
-      </c>
-      <c r="G37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
         <v>122</v>
       </c>
       <c r="F38">
-        <v>7.19</v>
+        <v>2.73</v>
       </c>
       <c r="G38">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39">
-        <v>2.46</v>
+        <v>5.83</v>
       </c>
       <c r="G39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40">
-        <v>4.02</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="G40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
         <v>124</v>
       </c>
       <c r="F41">
-        <v>6.75</v>
+        <v>8.91</v>
       </c>
       <c r="G41">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
       <c r="B42">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
       </c>
       <c r="F42">
+        <v>6.75</v>
+      </c>
+      <c r="G42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43">
         <v>3.07</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43">
-        <v>163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43">
-        <v>3.23</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F44">
-        <v>7.54</v>
+        <v>5.6</v>
       </c>
       <c r="G44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F45">
-        <v>0.82</v>
+        <v>1.66</v>
       </c>
       <c r="G45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
         <v>124</v>
       </c>
       <c r="F46">
-        <v>4.64</v>
+        <v>0.89</v>
       </c>
       <c r="G46">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1839,99 +1856,102 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>125</v>
       </c>
       <c r="F48">
-        <v>9.960000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="G48">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F49">
-        <v>0.83</v>
+        <v>5.88</v>
       </c>
       <c r="G49">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
         <v>123</v>
       </c>
       <c r="F50">
-        <v>2.21</v>
+        <v>1.63</v>
       </c>
       <c r="G50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51">
-        <v>2.73</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G51">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G51">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>